--- a/biology/Microbiologie/Geobacillus_stearothermophilus/Geobacillus_stearothermophilus.xlsx
+++ b/biology/Microbiologie/Geobacillus_stearothermophilus/Geobacillus_stearothermophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geobacillus stearothermophilus est une bactérie à Gram positif en forme de bâtonnet. Elle est mobile, produit des spores et est thermophile. On l'utilise généralement pour vérifier le bon fonctionnement de stérilisateurs à la vapeur comme l'autoclave, puisque les bactéries sporulantes sont plus résistantes en général et que les thermophiles tolèrent bien la chaleur. Ainsi, s'il reste des cellules de Geobacillus stearothermophilus et/ou des spores de cet organisme qui sont encore viables après avoir chauffé dans l'autoclave à 121 °C pendant 15 minutes, on sait que l'autoclave ne fonctionne pas bien.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Geobacillus stearothermophilus a été initialement décrite en 1920 par le bactériologiste P. J. Donk (d), travaillant alors à la National Canners Association à Washington, sous le protonyme de Bacillus stearothermophilus[1].
-En 2001, la microbiologiste russe Tamara N. Nazina (d) et son équipe classent cette espèce sous le genre Geobacillus qu'ils viennent de créer[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Geobacillus stearothermophilus a été initialement décrite en 1920 par le bactériologiste P. J. Donk (d), travaillant alors à la National Canners Association à Washington, sous le protonyme de Bacillus stearothermophilus.
+En 2001, la microbiologiste russe Tamara N. Nazina (d) et son équipe classent cette espèce sous le genre Geobacillus qu'ils viennent de créer.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 mars 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 mars 2022) :
 non-classé Geobacillus stearothermophilus 10
 non-classé Geobacillus stearothermophilus ATCC 12980
 non-classé Geobacillus stearothermophilus ATCC 7953
@@ -580,7 +596,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Description originale sous le taxon Bacillus stearothermophilus :
 (en) P. J. Donk, « A Highly Resistant Thermophilic Organism », Journal of Bacteriology, Baltimore, vol. 5, no 4,‎ 1er juillet 1920, p. 373-374 (ISSN 0021-9193, 1098-5530 et 1067-8832, OCLC 474775920 et 1800435, PMID 16558885, PMCID 378892, lire en ligne)
